--- a/metadata/atacseq/todo/Stanford TMC (ATACseq).xlsx
+++ b/metadata/atacseq/todo/Stanford TMC (ATACseq).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$218</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$535</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$87</definedName>
   </definedNames>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E235"/>
+  <dimension ref="A1:E218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1550,23 +1550,23 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HBM283.XXQN.824</t>
+          <t>HBM296.NBPZ.987</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM283.XXQN.824</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM296.NBPZ.987</t>
         </is>
       </c>
     </row>
@@ -1578,12 +1578,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1601,12 +1601,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1619,23 +1619,23 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HBM296.NBPZ.987</t>
+          <t>HBM298.BJXM.949</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM296.NBPZ.987</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM298.BJXM.949</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1670,12 +1670,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1688,69 +1688,69 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HBM298.BJXM.949</t>
+          <t>HBM323.JGNJ.947</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM298.BJXM.949</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM323.JGNJ.947</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM323.JGNJ.947</t>
+          <t>HBM329.SNBL.255</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM323.JGNJ.947</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM329.SNBL.255</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HBM323.JGNJ.947</t>
+          <t>HBM329.SNBL.255</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM323.JGNJ.947</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM329.SNBL.255</t>
         </is>
       </c>
     </row>
@@ -1762,12 +1762,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -1780,53 +1780,53 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HBM329.SNBL.255</t>
+          <t>HBM332.PGSG.277</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM329.SNBL.255</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM332.PGSG.277</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HBM329.SNBL.255</t>
+          <t>HBM332.PGSG.277</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM329.SNBL.255</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM332.PGSG.277</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HBM332.PGSG.277</t>
+          <t>HBM338.SSPB.265</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1842,14 +1842,14 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM332.PGSG.277</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM338.SSPB.265</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HBM332.PGSG.277</t>
+          <t>HBM338.SSPB.265</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1865,7 +1865,7 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM332.PGSG.277</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM338.SSPB.265</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1895,46 +1895,46 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HBM338.SSPB.265</t>
+          <t>HBM346.XMWF.667</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM338.SSPB.265</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM346.XMWF.667</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HBM338.SSPB.265</t>
+          <t>HBM346.XMWF.667</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM338.SSPB.265</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM346.XMWF.667</t>
         </is>
       </c>
     </row>
@@ -1946,12 +1946,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1964,46 +1964,46 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HBM346.XMWF.667</t>
+          <t>HBM357.WRHQ.827</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM346.XMWF.667</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM357.WRHQ.827</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HBM346.XMWF.667</t>
+          <t>HBM357.WRHQ.827</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM346.XMWF.667</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM357.WRHQ.827</t>
         </is>
       </c>
     </row>
@@ -2015,12 +2015,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -2033,7 +2033,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HBM357.WRHQ.827</t>
+          <t>HBM357.ZRCT.729</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2049,14 +2049,14 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM357.WRHQ.827</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM357.ZRCT.729</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HBM357.WRHQ.827</t>
+          <t>HBM357.ZRCT.729</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2072,7 +2072,7 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM357.WRHQ.827</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM357.ZRCT.729</t>
         </is>
       </c>
     </row>
@@ -2084,12 +2084,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -2102,99 +2102,99 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HBM357.ZRCT.729</t>
+          <t>HBM366.TWHT.638</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM357.ZRCT.729</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM366.TWHT.638</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HBM357.ZRCT.729</t>
+          <t>HBM372.FSCF.979</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM357.ZRCT.729</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM372.FSCF.979</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HBM366.TWHT.638</t>
+          <t>HBM372.FSCF.979</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM366.TWHT.638</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM372.FSCF.979</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HBM366.TWHT.638</t>
+          <t>HBM372.FSCF.979</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM366.TWHT.638</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM372.FSCF.979</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HBM372.FSCF.979</t>
+          <t>HBM376.RMDH.899</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2210,14 +2210,14 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM372.FSCF.979</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM376.RMDH.899</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HBM372.FSCF.979</t>
+          <t>HBM376.RMDH.899</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2233,14 +2233,14 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM372.FSCF.979</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM376.RMDH.899</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HBM372.FSCF.979</t>
+          <t>HBM376.RMDH.899</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2256,37 +2256,37 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM372.FSCF.979</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM376.RMDH.899</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HBM376.RMDH.899</t>
+          <t>HBM379.MLVH.522</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
+          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM376.RMDH.899</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM379.MLVH.522</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HBM376.RMDH.899</t>
+          <t>HBM389.XRDV.828</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2302,14 +2302,14 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM376.RMDH.899</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM389.XRDV.828</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HBM376.RMDH.899</t>
+          <t>HBM389.XRDV.828</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2325,106 +2325,106 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM376.RMDH.899</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM389.XRDV.828</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HBM379.MLVH.522</t>
+          <t>HBM397.LPDS.629</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM379.MLVH.522</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.LPDS.629</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HBM379.MLVH.522</t>
+          <t>HBM397.LPDS.629</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM379.MLVH.522</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.LPDS.629</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HBM389.XRDV.828</t>
+          <t>HBM397.LPDS.629</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM389.XRDV.828</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.LPDS.629</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HBM389.XRDV.828</t>
+          <t>HBM397.SHGQ.476</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM389.XRDV.828</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.SHGQ.476</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HBM397.LPDS.629</t>
+          <t>HBM397.SHGQ.476</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2440,14 +2440,14 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.LPDS.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.SHGQ.476</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HBM397.LPDS.629</t>
+          <t>HBM397.SHGQ.476</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2463,198 +2463,198 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.LPDS.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.SHGQ.476</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HBM397.LPDS.629</t>
+          <t>HBM398.THRG.589</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>10x Genomics; Chromium Chip E Single Cell ATAC Kit</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.LPDS.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM398.THRG.589</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HBM397.SHGQ.476</t>
+          <t>HBM398.THRG.589</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.SHGQ.476</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM398.THRG.589</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HBM397.SHGQ.476</t>
+          <t>HBM398.THRG.589</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.SHGQ.476</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM398.THRG.589</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HBM397.SHGQ.476</t>
+          <t>HBM422.GKTR.735</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.SHGQ.476</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM422.GKTR.735</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HBM398.THRG.589</t>
+          <t>HBM424.RQMH.756</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Chip E Single Cell ATAC Kit</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM398.THRG.589</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM424.RQMH.756</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HBM398.THRG.589</t>
+          <t>HBM424.RQMH.756</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM398.THRG.589</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM424.RQMH.756</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HBM398.THRG.589</t>
+          <t>HBM425.HGPQ.798</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM398.THRG.589</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM425.HGPQ.798</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HBM422.GKTR.735</t>
+          <t>HBM425.HGPQ.798</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM422.GKTR.735</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM425.HGPQ.798</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HBM422.GKTR.735</t>
+          <t>HBM425.HGPQ.798</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2664,20 +2664,20 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM422.GKTR.735</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM425.HGPQ.798</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HBM424.RQMH.756</t>
+          <t>HBM439.WKBL.739</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2693,14 +2693,14 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM424.RQMH.756</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM439.WKBL.739</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HBM424.RQMH.756</t>
+          <t>HBM439.WKBL.739</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2716,1003 +2716,1003 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM424.RQMH.756</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM439.WKBL.739</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HBM425.HGPQ.798</t>
+          <t>HBM439.WKBL.739</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM425.HGPQ.798</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM439.WKBL.739</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HBM425.HGPQ.798</t>
+          <t>HBM442.MWFQ.639</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM425.HGPQ.798</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM442.MWFQ.639</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HBM425.HGPQ.798</t>
+          <t>HBM442.MWFQ.639</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM425.HGPQ.798</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM442.MWFQ.639</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HBM439.WKBL.739</t>
+          <t>HBM442.MWFQ.639</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM439.WKBL.739</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM442.MWFQ.639</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HBM439.WKBL.739</t>
+          <t>HBM443.CTRV.486</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM439.WKBL.739</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM443.CTRV.486</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HBM439.WKBL.739</t>
+          <t>HBM443.CTRV.486</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM439.WKBL.739</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM443.CTRV.486</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HBM442.MWFQ.639</t>
+          <t>HBM443.CTRV.486</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM442.MWFQ.639</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM443.CTRV.486</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HBM442.MWFQ.639</t>
+          <t>HBM443.RQDW.442</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM442.MWFQ.639</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM443.RQDW.442</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HBM442.MWFQ.639</t>
+          <t>HBM443.RQDW.442</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM442.MWFQ.639</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM443.RQDW.442</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HBM443.CTRV.486</t>
+          <t>HBM443.RQDW.442</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM443.CTRV.486</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM443.RQDW.442</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>HBM443.CTRV.486</t>
+          <t>HBM452.SKFP.725</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>10x Genomics; Chromium Chip E Single Cell ATAC Kit</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM443.CTRV.486</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM452.SKFP.725</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>HBM443.CTRV.486</t>
+          <t>HBM452.SKFP.725</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM443.CTRV.486</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM452.SKFP.725</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HBM443.RQDW.442</t>
+          <t>HBM452.SKFP.725</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM443.RQDW.442</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM452.SKFP.725</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HBM443.RQDW.442</t>
+          <t>HBM473.HNPK.434</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM443.RQDW.442</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM473.HNPK.434</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>HBM443.RQDW.442</t>
+          <t>HBM522.LSNV.433</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM443.RQDW.442</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM522.LSNV.433</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HBM452.SKFP.725</t>
+          <t>HBM522.LSNV.433</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Chip E Single Cell ATAC Kit</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM452.SKFP.725</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM522.LSNV.433</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HBM452.SKFP.725</t>
+          <t>HBM522.LSNV.433</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM452.SKFP.725</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM522.LSNV.433</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HBM452.SKFP.725</t>
+          <t>HBM535.KPZS.733</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM452.SKFP.725</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM535.KPZS.733</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>HBM473.HNPK.434</t>
+          <t>HBM535.KPZS.733</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM473.HNPK.434</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM535.KPZS.733</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>HBM473.HNPK.434</t>
+          <t>HBM535.KPZS.733</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM473.HNPK.434</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM535.KPZS.733</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>HBM522.LSNV.433</t>
+          <t>HBM546.NVKL.577</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM522.LSNV.433</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM546.NVKL.577</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HBM522.LSNV.433</t>
+          <t>HBM546.NVKL.577</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM522.LSNV.433</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM546.NVKL.577</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HBM522.LSNV.433</t>
+          <t>HBM546.NVKL.577</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM522.LSNV.433</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM546.NVKL.577</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HBM535.KPZS.733</t>
+          <t>HBM562.FTNH.728</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM535.KPZS.733</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM562.FTNH.728</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>HBM535.KPZS.733</t>
+          <t>HBM562.FTNH.728</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM535.KPZS.733</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM562.FTNH.728</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>HBM535.KPZS.733</t>
+          <t>HBM562.FTNH.728</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM535.KPZS.733</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM562.FTNH.728</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>HBM546.NVKL.577</t>
+          <t>HBM563.PTWZ.467</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM546.NVKL.577</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM563.PTWZ.467</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>HBM546.NVKL.577</t>
+          <t>HBM576.LVBL.359</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM546.NVKL.577</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM576.LVBL.359</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>HBM546.NVKL.577</t>
+          <t>HBM576.LVBL.359</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM546.NVKL.577</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM576.LVBL.359</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HBM562.FTNH.728</t>
+          <t>HBM576.LVBL.359</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM562.FTNH.728</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM576.LVBL.359</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>HBM562.FTNH.728</t>
+          <t>HBM582.DFHH.268</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM562.FTNH.728</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM582.DFHH.268</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>HBM562.FTNH.728</t>
+          <t>HBM582.DFHH.268</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM562.FTNH.728</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM582.DFHH.268</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>HBM563.PTWZ.467</t>
+          <t>HBM582.DFHH.268</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM563.PTWZ.467</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM582.DFHH.268</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>HBM563.PTWZ.467</t>
+          <t>HBM584.XLZR.364</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM563.PTWZ.467</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XLZR.364</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>HBM576.LVBL.359</t>
+          <t>HBM584.XLZR.364</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM576.LVBL.359</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XLZR.364</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>HBM576.LVBL.359</t>
+          <t>HBM584.XLZR.364</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM576.LVBL.359</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XLZR.364</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>HBM576.LVBL.359</t>
+          <t>HBM589.SDPS.578</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM576.LVBL.359</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM589.SDPS.578</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>HBM582.DFHH.268</t>
+          <t>HBM589.SDPS.578</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM582.DFHH.268</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM589.SDPS.578</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>HBM582.DFHH.268</t>
+          <t>HBM589.SDPS.578</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM582.DFHH.268</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM589.SDPS.578</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>HBM582.DFHH.268</t>
+          <t>HBM592.GVWV.947</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM582.DFHH.268</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM592.GVWV.947</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HBM584.XLZR.364</t>
+          <t>HBM592.GVWV.947</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XLZR.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM592.GVWV.947</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>HBM584.XLZR.364</t>
+          <t>HBM592.GVWV.947</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XLZR.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM592.GVWV.947</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>HBM584.XLZR.364</t>
+          <t>HBM623.PHGT.682</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XLZR.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM623.PHGT.682</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>HBM589.SDPS.578</t>
+          <t>HBM623.PHGT.682</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3728,14 +3728,14 @@
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM589.SDPS.578</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM623.PHGT.682</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>HBM589.SDPS.578</t>
+          <t>HBM623.PHGT.682</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3751,37 +3751,37 @@
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM589.SDPS.578</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM623.PHGT.682</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>HBM589.SDPS.578</t>
+          <t>HBM632.PMDT.978</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM589.SDPS.578</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM632.PMDT.978</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>HBM592.GVWV.947</t>
+          <t>HBM632.PMDT.978</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3797,14 +3797,14 @@
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM592.GVWV.947</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM632.PMDT.978</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>HBM592.GVWV.947</t>
+          <t>HBM632.PMDT.978</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3820,359 +3820,359 @@
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM592.GVWV.947</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM632.PMDT.978</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>HBM592.GVWV.947</t>
+          <t>HBM638.SQBD.338</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM592.GVWV.947</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM638.SQBD.338</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>HBM623.PHGT.682</t>
+          <t>HBM645.KNRR.524</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM623.PHGT.682</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM645.KNRR.524</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>HBM623.PHGT.682</t>
+          <t>HBM645.KNRR.524</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM623.PHGT.682</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM645.KNRR.524</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>HBM623.PHGT.682</t>
+          <t>HBM645.KNRR.524</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM623.PHGT.682</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM645.KNRR.524</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>HBM632.PMDT.978</t>
+          <t>HBM654.VQLP.438</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM632.PMDT.978</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM654.VQLP.438</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HBM632.PMDT.978</t>
+          <t>HBM654.VQLP.438</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM632.PMDT.978</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM654.VQLP.438</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>HBM632.PMDT.978</t>
+          <t>HBM654.VQLP.438</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM632.PMDT.978</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM654.VQLP.438</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>HBM638.SQBD.338</t>
+          <t>HBM655.CTDD.395</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM638.SQBD.338</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM655.CTDD.395</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>HBM638.SQBD.338</t>
+          <t>HBM655.CTDD.395</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM638.SQBD.338</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM655.CTDD.395</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>HBM645.KNRR.524</t>
+          <t>HBM655.CTDD.395</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM645.KNRR.524</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM655.CTDD.395</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HBM645.KNRR.524</t>
+          <t>HBM658.RLQC.482</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM645.KNRR.524</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM658.RLQC.482</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>HBM645.KNRR.524</t>
+          <t>HBM658.RLQC.482</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM645.KNRR.524</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM658.RLQC.482</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>HBM654.VQLP.438</t>
+          <t>HBM658.RLQC.482</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM654.VQLP.438</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM658.RLQC.482</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>HBM654.VQLP.438</t>
+          <t>HBM666.QBKB.629</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM654.VQLP.438</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM666.QBKB.629</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>HBM654.VQLP.438</t>
+          <t>HBM667.ZWGS.745</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM654.VQLP.438</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM667.ZWGS.745</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>HBM655.CTDD.395</t>
+          <t>HBM667.ZWGS.745</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4188,14 +4188,14 @@
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM655.CTDD.395</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM667.ZWGS.745</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>HBM655.CTDD.395</t>
+          <t>HBM667.ZWGS.745</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4211,129 +4211,129 @@
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM655.CTDD.395</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM667.ZWGS.745</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>HBM655.CTDD.395</t>
+          <t>HBM673.ZXZT.494</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM655.CTDD.395</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM673.ZXZT.494</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>HBM658.RLQC.482</t>
+          <t>HBM673.ZXZT.494</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM658.RLQC.482</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM673.ZXZT.494</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>HBM658.RLQC.482</t>
+          <t>HBM673.ZXZT.494</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM658.RLQC.482</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM673.ZXZT.494</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>HBM658.RLQC.482</t>
+          <t>HBM675.WGCV.363</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM658.RLQC.482</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM675.WGCV.363</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>HBM666.QBKB.629</t>
+          <t>HBM675.WGCV.363</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM666.QBKB.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM675.WGCV.363</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>HBM666.QBKB.629</t>
+          <t>HBM675.WGCV.363</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4343,43 +4343,43 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM666.QBKB.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM675.WGCV.363</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>HBM667.ZWGS.745</t>
+          <t>HBM688.DRXP.369</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
+          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM667.ZWGS.745</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM688.DRXP.369</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>HBM667.ZWGS.745</t>
+          <t>HBM693.BHLJ.499</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4395,14 +4395,14 @@
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM667.ZWGS.745</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM693.BHLJ.499</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>HBM667.ZWGS.745</t>
+          <t>HBM693.BHLJ.499</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4418,152 +4418,152 @@
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM667.ZWGS.745</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM693.BHLJ.499</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>HBM673.ZXZT.494</t>
+          <t>HBM693.BHLJ.499</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM673.ZXZT.494</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM693.BHLJ.499</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>HBM673.ZXZT.494</t>
+          <t>HBM722.HPXF.559</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM673.ZXZT.494</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM722.HPXF.559</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>HBM673.ZXZT.494</t>
+          <t>HBM722.HPXF.559</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM673.ZXZT.494</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM722.HPXF.559</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>HBM675.WGCV.363</t>
+          <t>HBM722.HPXF.559</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM675.WGCV.363</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM722.HPXF.559</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>HBM675.WGCV.363</t>
+          <t>HBM723.SFNS.898</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM675.WGCV.363</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM723.SFNS.898</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>HBM675.WGCV.363</t>
+          <t>HBM726.DDNW.235</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM675.WGCV.363</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.DDNW.235</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>HBM688.DRXP.369</t>
+          <t>HBM733.SLXV.683</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4579,37 +4579,37 @@
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM688.DRXP.369</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM733.SLXV.683</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>HBM688.DRXP.369</t>
+          <t>HBM739.KSDT.896</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM688.DRXP.369</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM739.KSDT.896</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>HBM693.BHLJ.499</t>
+          <t>HBM739.KSDT.896</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -4625,14 +4625,14 @@
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM693.BHLJ.499</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM739.KSDT.896</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>HBM693.BHLJ.499</t>
+          <t>HBM739.KSDT.896</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4648,796 +4648,796 @@
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM693.BHLJ.499</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM739.KSDT.896</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>HBM693.BHLJ.499</t>
+          <t>HBM747.VBFK.754</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>10x Genomics; Chromium Chip E Single Cell ATAC Kit</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM693.BHLJ.499</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.VBFK.754</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>HBM722.HPXF.559</t>
+          <t>HBM747.VBFK.754</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM722.HPXF.559</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.VBFK.754</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>HBM722.HPXF.559</t>
+          <t>HBM747.VBFK.754</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM722.HPXF.559</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.VBFK.754</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>HBM722.HPXF.559</t>
+          <t>HBM748.MMQM.339</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM722.HPXF.559</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.MMQM.339</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>HBM723.SFNS.898</t>
+          <t>HBM748.MMQM.339</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM723.SFNS.898</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.MMQM.339</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>HBM723.SFNS.898</t>
+          <t>HBM748.MMQM.339</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM723.SFNS.898</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.MMQM.339</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>HBM726.DDNW.235</t>
+          <t>HBM752.FCBR.973</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
+          <t>10x Genomics; Chromium Next GEM Chip J Single Cell Kit</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.DDNW.235</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM752.FCBR.973</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>HBM726.DDNW.235</t>
+          <t>HBM752.FCBR.973</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.DDNW.235</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM752.FCBR.973</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>HBM733.SLXV.683</t>
+          <t>HBM752.FCBR.973</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM733.SLXV.683</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM752.FCBR.973</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>HBM733.SLXV.683</t>
+          <t>HBM757.DVSN.643</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM733.SLXV.683</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM757.DVSN.643</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>HBM739.KSDT.896</t>
+          <t>HBM757.DVSN.643</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM739.KSDT.896</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM757.DVSN.643</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>HBM739.KSDT.896</t>
+          <t>HBM757.DVSN.643</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM739.KSDT.896</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM757.DVSN.643</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>HBM739.KSDT.896</t>
+          <t>HBM764.TNMB.956</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM739.KSDT.896</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM764.TNMB.956</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>HBM747.VBFK.754</t>
+          <t>HBM764.TNMB.956</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Chip E Single Cell ATAC Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.VBFK.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM764.TNMB.956</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>HBM747.VBFK.754</t>
+          <t>HBM764.TNMB.956</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.VBFK.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM764.TNMB.956</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>HBM747.VBFK.754</t>
+          <t>HBM772.BLMV.579</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.VBFK.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM772.BLMV.579</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>HBM748.MMQM.339</t>
+          <t>HBM772.BLMV.579</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.MMQM.339</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM772.BLMV.579</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>HBM748.MMQM.339</t>
+          <t>HBM772.BLMV.579</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.MMQM.339</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM772.BLMV.579</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>HBM748.MMQM.339</t>
+          <t>HBM782.XQRG.998</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.MMQM.339</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM782.XQRG.998</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>HBM752.FCBR.973</t>
+          <t>HBM789.WPJN.678</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip J Single Cell Kit</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM752.FCBR.973</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM789.WPJN.678</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>HBM752.FCBR.973</t>
+          <t>HBM789.WPJN.678</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>sample_indexing_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>10x Genomics; Single Index Kit N, Set A (96 rxn); PN 1000212</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM752.FCBR.973</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM789.WPJN.678</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>HBM752.FCBR.973</t>
+          <t>HBM789.WPJN.678</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM752.FCBR.973</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM789.WPJN.678</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>HBM752.FCBR.973</t>
+          <t>HBM792.GHWK.356</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM752.FCBR.973</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM792.GHWK.356</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>HBM757.DVSN.643</t>
+          <t>HBM792.GHWK.356</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM757.DVSN.643</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM792.GHWK.356</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>HBM757.DVSN.643</t>
+          <t>HBM829.FJPP.583</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM757.DVSN.643</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.FJPP.583</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>HBM757.DVSN.643</t>
+          <t>HBM829.FJPP.583</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM757.DVSN.643</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.FJPP.583</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>HBM764.TNMB.956</t>
+          <t>HBM829.FJPP.583</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM764.TNMB.956</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.FJPP.583</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>HBM764.TNMB.956</t>
+          <t>HBM835.DHSZ.473</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM764.TNMB.956</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM835.DHSZ.473</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>HBM764.TNMB.956</t>
+          <t>HBM835.DHSZ.473</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM764.TNMB.956</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM835.DHSZ.473</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>HBM772.BLMV.579</t>
+          <t>HBM835.DHSZ.473</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM772.BLMV.579</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM835.DHSZ.473</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>HBM772.BLMV.579</t>
+          <t>HBM838.NDBV.498</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM772.BLMV.579</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM838.NDBV.498</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>HBM772.BLMV.579</t>
+          <t>HBM838.NDBV.498</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM772.BLMV.579</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM838.NDBV.498</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>HBM782.XQRG.998</t>
+          <t>HBM838.NDBV.498</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM782.XQRG.998</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM838.NDBV.498</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>HBM782.XQRG.998</t>
+          <t>HBM849.QFWQ.926</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM782.XQRG.998</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM849.QFWQ.926</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>HBM789.WPJN.678</t>
+          <t>HBM849.QFWQ.926</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -5453,14 +5453,14 @@
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM789.WPJN.678</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM849.QFWQ.926</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>HBM789.WPJN.678</t>
+          <t>HBM849.QFWQ.926</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -5476,37 +5476,37 @@
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM789.WPJN.678</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM849.QFWQ.926</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>HBM789.WPJN.678</t>
+          <t>HBM865.WSGK.682</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
         </is>
       </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM789.WPJN.678</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM865.WSGK.682</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>HBM792.GHWK.356</t>
+          <t>HBM865.WSGK.682</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -5522,14 +5522,14 @@
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM792.GHWK.356</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM865.WSGK.682</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>HBM792.GHWK.356</t>
+          <t>HBM865.WSGK.682</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -5545,106 +5545,106 @@
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM792.GHWK.356</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM865.WSGK.682</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>HBM829.FJPP.583</t>
+          <t>HBM875.LBGV.674</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.FJPP.583</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.LBGV.674</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>HBM829.FJPP.583</t>
+          <t>HBM882.HDWL.396</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
         </is>
       </c>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.FJPP.583</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM882.HDWL.396</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>HBM829.FJPP.583</t>
+          <t>HBM882.HDWL.396</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.FJPP.583</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM882.HDWL.396</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>HBM835.DHSZ.473</t>
+          <t>HBM882.HDWL.396</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM835.DHSZ.473</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM882.HDWL.396</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>HBM835.DHSZ.473</t>
+          <t>HBM892.BKPQ.552</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -5660,14 +5660,14 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM835.DHSZ.473</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM892.BKPQ.552</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>HBM835.DHSZ.473</t>
+          <t>HBM892.BKPQ.552</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -5683,106 +5683,106 @@
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM835.DHSZ.473</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM892.BKPQ.552</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>HBM838.NDBV.498</t>
+          <t>HBM892.BKPQ.552</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM838.NDBV.498</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM892.BKPQ.552</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>HBM838.NDBV.498</t>
+          <t>HBM899.PGTB.347</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM838.NDBV.498</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM899.PGTB.347</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>HBM838.NDBV.498</t>
+          <t>HBM899.PGTB.347</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM838.NDBV.498</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM899.PGTB.347</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>HBM849.QFWQ.926</t>
+          <t>HBM899.PGTB.347</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM849.QFWQ.926</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM899.PGTB.347</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>HBM849.QFWQ.926</t>
+          <t>HBM946.NKHN.264</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -5798,14 +5798,14 @@
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM849.QFWQ.926</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM946.NKHN.264</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>HBM849.QFWQ.926</t>
+          <t>HBM946.NKHN.264</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -5821,83 +5821,83 @@
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM849.QFWQ.926</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM946.NKHN.264</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>HBM865.WSGK.682</t>
+          <t>HBM957.HKSV.373</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM865.WSGK.682</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM957.HKSV.373</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>HBM865.WSGK.682</t>
+          <t>HBM957.HKSV.373</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM865.WSGK.682</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM957.HKSV.373</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>HBM865.WSGK.682</t>
+          <t>HBM957.HKSV.373</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM865.WSGK.682</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM957.HKSV.373</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>HBM875.LBGV.674</t>
+          <t>HBM975.DJNJ.667</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -5913,175 +5913,175 @@
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.LBGV.674</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM975.DJNJ.667</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>HBM875.LBGV.674</t>
+          <t>HBM985.RHTM.678</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.LBGV.674</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM985.RHTM.678</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>HBM882.HDWL.396</t>
+          <t>HBM985.RHTM.678</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM882.HDWL.396</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM985.RHTM.678</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>HBM882.HDWL.396</t>
+          <t>HBM985.RHTM.678</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM882.HDWL.396</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM985.RHTM.678</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>HBM882.HDWL.396</t>
+          <t>HBM989.JQKP.746</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
         </is>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM882.HDWL.396</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM989.JQKP.746</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>HBM892.BKPQ.552</t>
+          <t>HBM989.JQKP.746</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM892.BKPQ.552</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM989.JQKP.746</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>HBM892.BKPQ.552</t>
+          <t>HBM989.JQKP.746</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>transposition_method</t>
+          <t>transposition_reagent_kit</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>snATACseq</t>
+          <t>163732</t>
         </is>
       </c>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM892.BKPQ.552</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM989.JQKP.746</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>HBM892.BKPQ.552</t>
+          <t>HBM993.LPCM.624</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
         </is>
       </c>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM892.BKPQ.552</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM993.LPCM.624</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>HBM899.PGTB.347</t>
+          <t>HBM993.LPCM.624</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -6097,14 +6097,14 @@
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM899.PGTB.347</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM993.LPCM.624</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>HBM899.PGTB.347</t>
+          <t>HBM993.LPCM.624</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -6120,421 +6120,27 @@
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM899.PGTB.347</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>HBM899.PGTB.347</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>163732</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM899.PGTB.347</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>HBM946.NKHN.264</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>sequencing_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr"/>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM946.NKHN.264</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>HBM946.NKHN.264</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>transposition_method</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>snATACseq</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM946.NKHN.264</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>HBM957.HKSV.373</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>sequencing_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM957.HKSV.373</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>HBM957.HKSV.373</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>transposition_method</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>snATACseq</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM957.HKSV.373</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>HBM957.HKSV.373</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>163732</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr"/>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM957.HKSV.373</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>HBM975.DJNJ.667</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>library_preparation_kit</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>Illumina Tagment DNA TDE1 Enzyme and Buffer Kit</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr"/>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM975.DJNJ.667</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>HBM975.DJNJ.667</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM975.DJNJ.667</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>HBM985.RHTM.678</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>sequencing_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM985.RHTM.678</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>HBM985.RHTM.678</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>transposition_method</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>snATACseq</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr"/>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM985.RHTM.678</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>HBM985.RHTM.678</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>163732</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr"/>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM985.RHTM.678</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>HBM989.JQKP.746</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>sequencing_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr"/>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM989.JQKP.746</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>HBM989.JQKP.746</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>transposition_method</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>snATACseq</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr"/>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM989.JQKP.746</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>HBM989.JQKP.746</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>163732</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr"/>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM989.JQKP.746</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>HBM993.LPCM.624</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>preparation_instrument_kit</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>10x Genomics; Chromium Next GEM Chip H Single Cell Kit</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr"/>
-      <c r="E233" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM993.LPCM.624</t>
         </is>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>HBM993.LPCM.624</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>sequencing_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>Illumina; NovaSeq 6000 Reagent Kit</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr"/>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM993.LPCM.624</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>HBM993.LPCM.624</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>transposition_method</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>snATACseq</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr"/>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM993.LPCM.624</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E235"/>
-  <dataValidations count="6">
-    <dataValidation sqref="D2 D5 D7 D9 D12 D14 D16 D21 D24 D29 D32 D34 D37 D41 D43 D49 D52 D56 D58 D62 D65 D69 D71 D74 D78 D80 D84 D87 D92 D95 D97 D100 D105 D109 D111 D114 D117 D121 D124 D128 D131 D134 D138 D143 D145 D148 D153 D157 D166 D169 D172 D176 D178 D181 D184 D189 D192 D194 D198 D200 D204 D207 D212 D214 D217 D220 D222 D227 D230 D234" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:E218"/>
+  <dataValidations count="5">
+    <dataValidation sqref="D2 D5 D7 D9 D12 D14 D16 D20 D23 D27 D30 D32 D35 D39 D41 D46 D49 D52 D54 D58 D61 D64 D66 D69 D73 D75 D79 D82 D86 D89 D91 D94 D98 D102 D104 D107 D110 D114 D117 D120 D123 D126 D130 D134 D136 D139 D143 D147 D153 D156 D159 D162 D164 D167 D170 D174 D177 D179 D183 D185 D189 D192 D196 D198 D201 D204 D206 D210 D213 D217" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$E$1:$E$29</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D6 D8 D10 D13 D15 D17 D22 D25 D30 D33 D35 D38 D42 D44 D50 D53 D57 D59 D63 D66 D70 D72 D75 D79 D81 D85 D88 D93 D96 D98 D101 D106 D110 D112 D115 D118 D122 D125 D129 D132 D135 D139 D144 D146 D149 D154 D158 D167 D170 D173 D177 D179 D182 D185 D190 D193 D195 D199 D201 D205 D208 D213 D215 D218 D221 D223 D228 D231 D235" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D3 D6 D8 D10 D13 D15 D17 D21 D24 D28 D31 D33 D36 D40 D42 D47 D50 D53 D55 D59 D62 D65 D67 D70 D74 D76 D80 D83 D87 D90 D92 D95 D99 D103 D105 D108 D111 D115 D118 D121 D124 D127 D131 D135 D137 D140 D144 D148 D154 D157 D160 D163 D165 D168 D171 D175 D178 D180 D184 D186 D190 D193 D197 D199 D202 D205 D207 D211 D214 D218" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$G$1:$G$4</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D11 D40 D48 D51 D61 D64 D77 D83 D86 D91 D94 D108 D120 D123 D137 D142 D156 D165 D168 D171 D174 D197 D203 D206 D211 D233" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D4 D11 D38 D45 D48 D57 D60 D72 D78 D81 D85 D88 D101 D113 D116 D129 D133 D146 D152 D155 D158 D161 D182 D188 D191 D195 D216" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$C$1:$C$13</formula1>
     </dataValidation>
-    <dataValidation sqref="D18 D20 D23 D26 D28 D31 D36 D39 D45 D47 D55 D60 D68 D73 D76 D82 D90 D99 D102 D104 D107 D113 D116 D119 D127 D130 D133 D136 D141 D147 D150 D152 D155 D160 D162 D164 D180 D183 D186 D188 D191 D196 D202 D210 D216 D219 D224 D226 D229 D232" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D18 D22 D25 D29 D34 D37 D43 D56 D68 D71 D77 D93 D96 D100 D106 D109 D112 D122 D125 D128 D138 D141 D145 D166 D169 D172 D176 D181 D187 D200 D203 D208 D212 D215" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$H$1:$H$7</formula1>
     </dataValidation>
-    <dataValidation sqref="D19 D27 D46 D54 D67 D89 D103 D126 D140 D151 D159 D161 D163 D187 D209 D225" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D19 D26 D44 D51 D63 D84 D97 D119 D132 D142 D149 D150 D151 D173 D194 D209" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$B$1:$B$37</formula1>
-    </dataValidation>
-    <dataValidation sqref="D175" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$D$1:$D$19</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
